--- a/03_plots_and_tables/CD_AGP_table.xlsx
+++ b/03_plots_and_tables/CD_AGP_table.xlsx
@@ -387,7 +387,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>chao1</t>
+          <t>gini_index</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -401,16 +401,16 @@
         </is>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2.104898027750113e-18</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>3.157347041625169e-17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>margalef</t>
+          <t>chao1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -424,16 +424,16 @@
         </is>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>3.145739791286853e-09</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1.572869895643426e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>faith_pd</t>
+          <t>margalef</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -447,16 +447,16 @@
         </is>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>4.412360348993871e-08</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1.696155445505385e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>gini_index</t>
+          <t>strong</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -470,16 +470,16 @@
         </is>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>9.394337191284977e-08</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2.818301157385493e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>strong</t>
+          <t>faith_pd</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -493,10 +493,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>4.317708939790004e-06</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1.079427234947501e-05</v>
       </c>
     </row>
     <row r="7">
@@ -516,10 +516,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>6.999999999999999e-05</v>
+        <v>6.758843835393582e-05</v>
       </c>
       <c r="E7">
-        <v>0.00015</v>
+        <v>0.000144832367901291</v>
       </c>
     </row>
     <row r="8">
@@ -539,10 +539,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.00831</v>
+        <v>0.008314214349516924</v>
       </c>
       <c r="E8">
-        <v>0.01558</v>
+        <v>0.01558915190534423</v>
       </c>
     </row>
     <row r="9">
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.07199</v>
+        <v>0.07199365214150709</v>
       </c>
       <c r="E9">
-        <v>0.10798</v>
+        <v>0.1079904782122606</v>
       </c>
     </row>
     <row r="10">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.14985</v>
+        <v>0.1498453655581698</v>
       </c>
       <c r="E10">
-        <v>0.20434</v>
+        <v>0.2043345893975043</v>
       </c>
     </row>
     <row r="11">
@@ -608,10 +608,10 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.75357</v>
+        <v>0.7535692521214001</v>
       </c>
       <c r="E11">
-        <v>0.76939</v>
+        <v>0.7693880998244359</v>
       </c>
     </row>
   </sheetData>
